--- a/Excel_Files/Dynamic_Range/1.5_cm/673_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1.5_cm/673_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>579.931</v>
+        <v>18.023</v>
       </c>
       <c r="D2">
-        <v>2459.682</v>
+        <v>25.959</v>
       </c>
       <c r="E2">
-        <v>1779.155</v>
+        <v>27.345</v>
       </c>
       <c r="F2">
-        <v>6338.685</v>
+        <v>53.074</v>
       </c>
       <c r="G2">
-        <v>1938.525</v>
+        <v>35.82</v>
       </c>
       <c r="H2">
-        <v>13626.186</v>
+        <v>61.339</v>
       </c>
       <c r="I2">
-        <v>1333.266</v>
+        <v>23.976</v>
       </c>
       <c r="J2">
-        <v>2058.712</v>
+        <v>27.498</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>118.992</v>
+        <v>9.095000000000001</v>
       </c>
       <c r="D3">
-        <v>554.049</v>
+        <v>12.844</v>
       </c>
       <c r="E3">
-        <v>264.661</v>
+        <v>12.252</v>
       </c>
       <c r="F3">
-        <v>357.127</v>
+        <v>15.889</v>
       </c>
       <c r="G3">
-        <v>528.744</v>
+        <v>20.51</v>
       </c>
       <c r="H3">
-        <v>819.991</v>
+        <v>20.9</v>
       </c>
       <c r="I3">
-        <v>143.703</v>
+        <v>10.254</v>
       </c>
       <c r="J3">
-        <v>68.83499999999999</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>31.029</v>
+        <v>5.152</v>
       </c>
       <c r="D4">
-        <v>60.83</v>
+        <v>6.124</v>
       </c>
       <c r="E4">
-        <v>58.656</v>
+        <v>6.393</v>
       </c>
       <c r="F4">
-        <v>40.305</v>
+        <v>6.002</v>
       </c>
       <c r="G4">
-        <v>70.63500000000001</v>
+        <v>7.901</v>
       </c>
       <c r="H4">
-        <v>84.752</v>
+        <v>8.053000000000001</v>
       </c>
       <c r="I4">
-        <v>56.261</v>
+        <v>6.409</v>
       </c>
       <c r="J4">
-        <v>12.498</v>
+        <v>3.474</v>
       </c>
     </row>
   </sheetData>
